--- a/Wuerfel/Project Outputs for Wuerfel/Stueckliste.xlsx
+++ b/Wuerfel/Project Outputs for Wuerfel/Stueckliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/04_Wuerfel/ftkl-digital-dice/Wuerfel/Project Outputs for Wuerfel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41330783-A143-4977-BC35-B9C236F3EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{41330783-A143-4977-BC35-B9C236F3EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9CA2701-F9A3-4960-91AA-C8243B063BD1}"/>
   <bookViews>
-    <workbookView xWindow="2590" yWindow="1860" windowWidth="14400" windowHeight="7270" xr2:uid="{58D475F4-291A-4639-BA44-C9AAB51DEF97}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{58D475F4-291A-4639-BA44-C9AAB51DEF97}"/>
   </bookViews>
   <sheets>
     <sheet name="Stueckliste" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Stueckliste!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,98 +39,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Designator</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>LibRef</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>0.33uF</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>C_RM2-025X075</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>Polarized Capacitor</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>C_POL_RM2-8,5</t>
-  </si>
-  <si>
-    <t>C_POL</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>1nF</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>LED_7Seg_CA</t>
-  </si>
-  <si>
-    <t>Red 7-Segment Display, CA, 13 mm Slim Font</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>LED_7Seg</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Si-Diode; 75V, 0.300A, 4.00ns (Diodes Inc.)</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
     <t>D_DO35-RM3</t>
   </si>
   <si>
-    <t>1N4002</t>
-  </si>
-  <si>
-    <t>Si-Diode; 100V, 1.00A, 3.00us (Diodes, Inc.)</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
@@ -140,113 +74,152 @@
     <t>7805</t>
   </si>
   <si>
-    <t>Positive-Voltage Regulator</t>
-  </si>
-  <si>
     <t>IC1</t>
   </si>
   <si>
     <t>TO-220</t>
   </si>
   <si>
-    <t>78xx</t>
-  </si>
-  <si>
     <t>SN74LS93</t>
   </si>
   <si>
-    <t>4-Bit Binary Counter</t>
-  </si>
-  <si>
     <t>IC2</t>
   </si>
   <si>
-    <t>DIP14</t>
-  </si>
-  <si>
     <t>SN74LS00</t>
   </si>
   <si>
-    <t>Quad 2-Input Positive-NAND Gate</t>
-  </si>
-  <si>
-    <t>IC3, IC4, IC5, IC6, IC7</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6, R7</t>
-  </si>
-  <si>
-    <t>R_0207/RM4</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>68K</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
-    <t>33K</t>
-  </si>
-  <si>
     <t>R9</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>R11, R12, R13</t>
-  </si>
-  <si>
-    <t>Plug</t>
-  </si>
-  <si>
-    <t>S11, X1, X2</t>
-  </si>
-  <si>
-    <t>PIN1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
     <t>Mikrotaster 1x2</t>
   </si>
   <si>
-    <t>Mikrotaster 1x2; max DC 50V</t>
-  </si>
-  <si>
     <t>TA1</t>
   </si>
   <si>
-    <t>SW_DTSM-61NT/R - 1x2</t>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Bauform</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Werte</t>
+  </si>
+  <si>
+    <t>MKT-Kondensator</t>
+  </si>
+  <si>
+    <t>Si-Diode</t>
+  </si>
+  <si>
+    <t>Festspannungsregler</t>
+  </si>
+  <si>
+    <t>S11, S12, X1, X2</t>
+  </si>
+  <si>
+    <t>Anschlussklemme</t>
+  </si>
+  <si>
+    <t>Rote 7-Segment-Anzeige</t>
+  </si>
+  <si>
+    <t>max DC 50V</t>
+  </si>
+  <si>
+    <t>Kohleschicht-Widerstand</t>
+  </si>
+  <si>
+    <t>6 x 2 mm</t>
+  </si>
+  <si>
+    <t>0,33 µF</t>
+  </si>
+  <si>
+    <t>0,1 µF</t>
+  </si>
+  <si>
+    <t>1 nF</t>
+  </si>
+  <si>
+    <t>1N4002; 100 V; 1 A</t>
+  </si>
+  <si>
+    <t>1N4148; 75 V; 0,3 A</t>
+  </si>
+  <si>
+    <t>47 Ω; 0,25 W</t>
+  </si>
+  <si>
+    <t>68 kΩ; 0,25 W</t>
+  </si>
+  <si>
+    <t>33 kΩ; 0,25 W</t>
+  </si>
+  <si>
+    <t>1 kΩ; 0,25 W</t>
+  </si>
+  <si>
+    <t>1 Ω; 0,25 W</t>
+  </si>
+  <si>
+    <t>17,5 x 12,4 mm</t>
+  </si>
+  <si>
+    <t>2,5 x 7,5 mm</t>
+  </si>
+  <si>
+    <t>⌀ 19 mm</t>
+  </si>
+  <si>
+    <t>Elektrolyt-Kondensator</t>
+  </si>
+  <si>
+    <t>R1 - R7</t>
+  </si>
+  <si>
+    <t>IC3 - IC7</t>
+  </si>
+  <si>
+    <t>R11 - R13</t>
+  </si>
+  <si>
+    <t>1 µF; max 100 V</t>
+  </si>
+  <si>
+    <t>7,62 x 2,54 mm</t>
+  </si>
+  <si>
+    <t>4xNAND-Gatter</t>
+  </si>
+  <si>
+    <t>4-bit-Binärzähler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,396 +586,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392C83BF-2A86-4C66-B5E1-780487120BEC}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>57</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>60</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Wuerfel/Project Outputs for Wuerfel/Stueckliste.xlsx
+++ b/Wuerfel/Project Outputs for Wuerfel/Stueckliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/04_Wuerfel/ftkl-digital-dice/Wuerfel/Project Outputs for Wuerfel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{41330783-A143-4977-BC35-B9C236F3EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9CA2701-F9A3-4960-91AA-C8243B063BD1}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{41330783-A143-4977-BC35-B9C236F3EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17D8D767-7093-4F99-A540-204305EE5D71}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{58D475F4-291A-4639-BA44-C9AAB51DEF97}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Designator</t>
   </si>
@@ -62,24 +62,15 @@
     <t>D2</t>
   </si>
   <si>
-    <t>D_DO35-RM3</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>D_DO41-RM4</t>
-  </si>
-  <si>
     <t>7805</t>
   </si>
   <si>
     <t>IC1</t>
   </si>
   <si>
-    <t>TO-220</t>
-  </si>
-  <si>
     <t>SN74LS93</t>
   </si>
   <si>
@@ -98,12 +89,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>Mikrotaster 1x2</t>
-  </si>
-  <si>
-    <t>TA1</t>
-  </si>
-  <si>
     <t>Anzahl</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>Rote 7-Segment-Anzeige</t>
   </si>
   <si>
-    <t>max DC 50V</t>
-  </si>
-  <si>
     <t>Kohleschicht-Widerstand</t>
   </si>
   <si>
@@ -197,13 +179,49 @@
     <t>1 µF; max 100 V</t>
   </si>
   <si>
-    <t>7,62 x 2,54 mm</t>
-  </si>
-  <si>
     <t>4xNAND-Gatter</t>
   </si>
   <si>
     <t>4-bit-Binärzähler</t>
+  </si>
+  <si>
+    <t>10,16 x 15,1 mm</t>
+  </si>
+  <si>
+    <t>3,4 x 1,75 mm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Batterie</t>
+  </si>
+  <si>
+    <t>9 V</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>46 x 26 mm</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Batterieclip</t>
+  </si>
+  <si>
+    <t>11,8 x 24,5 mm</t>
+  </si>
+  <si>
+    <t>19,5 x 6 mm</t>
+  </si>
+  <si>
+    <t>Schiebeschalter</t>
+  </si>
+  <si>
+    <t>7,62 x 2,54 mm; 14 Pins</t>
   </si>
 </sst>
 </file>
@@ -287,6 +305,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,20 +608,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392C83BF-2A86-4C66-B5E1-780487120BEC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -607,16 +629,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -627,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -647,13 +669,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -667,13 +689,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -687,13 +709,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -707,11 +729,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -725,13 +747,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -742,16 +764,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -762,16 +784,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -782,16 +804,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -802,16 +824,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -822,16 +844,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
         <v>7</v>
@@ -842,16 +864,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -862,16 +884,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -882,16 +904,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -902,16 +924,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -922,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -938,16 +960,54 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1">
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
         <v>1</v>
       </c>
     </row>
